--- a/data_file/附件4-关于沙盘及智慧拓客工单透明化的需求@工作量送审表.xlsx
+++ b/data_file/附件4-关于沙盘及智慧拓客工单透明化的需求@工作量送审表.xlsx
@@ -1214,19 +1214,16 @@
       <c r="A4" s="9" t="inlineStr">
         <is>
           <t>内容概述：
-1. 重构PC端任务流UI界面，基于APP端样例设计并提供静态代码
-2. 调整过程表记录规则，仅保留创建、提交和审批环节
-3. 修改接口数据，添加角色信息并调整操作类型
-4. 优化审批页面功能：
-   - 将"摸排信息审核"更名为"审核管理"
-   - 新增"待审批"和"待处理"双TAB布局
-   - 默认展示待审批TAB及当前工号提交的企业信息
-5. 改进搜索功能，支持按TAB分类搜索企业名称
-6. 重构企业信息展示卡片，添加"自主摸排"和"任务调度"分类标签
-7. 调整按钮功能：
-   - 移除"撤回"按钮
-   - 新增"进度"按钮并添加跳转到工单流转页面的链接
-8. 集成PROM侧接口，实现工单流转信息的实时展示</t>
+1. 重新设计并重构PC端任务流/工单流转UI界面及样式，输出静态代码。
+2. 调整过程表记录逻辑，仅记录创建、提交、审批环节，去除上门打卡等操作记录。
+3. 修改接口，添加角色信息并调整操作类型。
+4. 移除“撤回”按钮，新增“进度”按钮并支持跳转至工单流转页面。
+5. 将“摸排信息审核”名称变更为“审核管理”。
+6. 审批页面新增“待审批”和“待处理”TAB，分别用于查看和处理企业信息审批流程。
+7. 默认展示待审批TAB，显示当前工号提交的企业信息修改。
+8. 优化搜索逻辑，切换TAB时仅搜索对应TAB下的企业名称。
+9. 重构待审批TAB的企业卡片信息，添加“自主摸排”和“任务调度”标签进行区分。
+10. 调度PROM侧接口，实现工单流转信息的实时展示。</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1252,7 +1249,7 @@
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>2025年9月9日</t>
+          <t>2025年9月10日</t>
         </is>
       </c>
       <c r="D6" s="5" t="n"/>
